--- a/results/KNN/75Hz_2classes/res_hyperopt.xlsx
+++ b/results/KNN/75Hz_2classes/res_hyperopt.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'leaf_size': 54, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 3, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'leaf_size': 7, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 90, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'leaf_size': 8, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 87, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D5" t="n">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'leaf_size': 89, 'n_neighbors': 1, 'p': 4}</t>
+          <t>{'leaf_size': 45, 'n_neighbors': 9, 'p': 3}</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'leaf_size': 98, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 41, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'leaf_size': 65, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 35, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'leaf_size': 40, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 56, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'leaf_size': 46, 'n_neighbors': 1, 'p': 2}</t>
+          <t>{'leaf_size': 29, 'n_neighbors': 1, 'p': 2}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'leaf_size': 36, 'n_neighbors': 24, 'p': 1}</t>
+          <t>{'leaf_size': 51, 'n_neighbors': 24, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'leaf_size': 26, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 36, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'leaf_size': 12, 'n_neighbors': 1, 'p': 4}</t>
+          <t>{'leaf_size': 35, 'n_neighbors': 1, 'p': 4}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'leaf_size': 97, 'n_neighbors': 1, 'p': 3}</t>
+          <t>{'leaf_size': 46, 'n_neighbors': 1, 'p': 3}</t>
         </is>
       </c>
     </row>
@@ -720,11 +720,11 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'leaf_size': 14, 'n_neighbors': 1, 'p': 2}</t>
+          <t>{'leaf_size': 63, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'leaf_size': 51, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 16, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'leaf_size': 9, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 75, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>

--- a/results/KNN/75Hz_2classes/res_hyperopt.xlsx
+++ b/results/KNN/75Hz_2classes/res_hyperopt.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>load</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'leaf_size': 3, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 93, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'leaf_size': 90, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 7, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'leaf_size': 87, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 71, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'leaf_size': 45, 'n_neighbors': 9, 'p': 3}</t>
+          <t>{'leaf_size': 28, 'n_neighbors': 9, 'p': 3}</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'leaf_size': 41, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 29, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'leaf_size': 35, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 38, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'leaf_size': 56, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 15, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'leaf_size': 29, 'n_neighbors': 1, 'p': 2}</t>
+          <t>{'leaf_size': 15, 'n_neighbors': 1, 'p': 2}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'leaf_size': 51, 'n_neighbors': 24, 'p': 1}</t>
+          <t>{'leaf_size': 64, 'n_neighbors': 24, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'leaf_size': 36, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 79, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="D12" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'leaf_size': 35, 'n_neighbors': 1, 'p': 4}</t>
+          <t>{'leaf_size': 73, 'n_neighbors': 7, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'leaf_size': 46, 'n_neighbors': 1, 'p': 3}</t>
+          <t>{'leaf_size': 38, 'n_neighbors': 1, 'p': 4}</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'leaf_size': 63, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 88, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'leaf_size': 75, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 45, 'n_neighbors': 1, 'p': 4}</t>
         </is>
       </c>
     </row>
